--- a/output/MZK_29762329000171.xlsx
+++ b/output/MZK_29762329000171.xlsx
@@ -746,10 +746,10 @@
         <v>44165</v>
       </c>
       <c r="B33">
-        <v>0.1362836999999999</v>
+        <v>0.1359002</v>
       </c>
       <c r="C33">
-        <v>0.02316374006243693</v>
+        <v>0.02281841847213872</v>
       </c>
     </row>
   </sheetData>

--- a/output/MZK_29762329000171.xlsx
+++ b/output/MZK_29762329000171.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MZK DINÂMICO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43220</v>
       </c>
@@ -411,345 +405,252 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43251</v>
       </c>
       <c r="B3">
         <v>-0.008426500000000003</v>
       </c>
-      <c r="C3">
-        <v>-0.008426500000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43281</v>
       </c>
       <c r="B4">
-        <v>0.000935499999999978</v>
-      </c>
-      <c r="C4">
         <v>0.009441559299436575</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43312</v>
       </c>
       <c r="B5">
-        <v>0.001798699999999931</v>
-      </c>
-      <c r="C5">
         <v>0.0008623932311322413</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43343</v>
       </c>
       <c r="B6">
-        <v>0.0006867999999999874</v>
-      </c>
-      <c r="C6">
         <v>-0.001109903616365204</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43373</v>
       </c>
       <c r="B7">
-        <v>0.003501100000000035</v>
-      </c>
-      <c r="C7">
         <v>0.002812368465338055</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43404</v>
       </c>
       <c r="B8">
-        <v>0.01458760000000003</v>
-      </c>
-      <c r="C8">
         <v>0.01104782047573249</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43434</v>
       </c>
       <c r="B9">
-        <v>0.02186920000000003</v>
-      </c>
-      <c r="C9">
         <v>0.007176906163647079</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43465</v>
       </c>
       <c r="B10">
-        <v>0.02513670000000001</v>
-      </c>
-      <c r="C10">
         <v>0.003197571665727761</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43496</v>
       </c>
       <c r="B11">
-        <v>0.05822529999999992</v>
-      </c>
-      <c r="C11">
         <v>0.03227725629177058</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43524</v>
       </c>
       <c r="B12">
-        <v>0.0631427</v>
-      </c>
-      <c r="C12">
         <v>0.004646836547945066</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43555</v>
       </c>
       <c r="B13">
-        <v>0.05217000000000005</v>
-      </c>
-      <c r="C13">
         <v>-0.0103210039442494</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43585</v>
       </c>
       <c r="B14">
-        <v>0.05842020000000003</v>
-      </c>
-      <c r="C14">
         <v>0.005940294819278158</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43616</v>
       </c>
       <c r="B15">
-        <v>0.07557009999999997</v>
-      </c>
-      <c r="C15">
         <v>0.0162032999748114</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43646</v>
       </c>
       <c r="B16">
-        <v>0.101216</v>
-      </c>
-      <c r="C16">
         <v>0.02384400607640536</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43677</v>
       </c>
       <c r="B17">
-        <v>0.1082154</v>
-      </c>
-      <c r="C17">
         <v>0.006356064568622255</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43708</v>
       </c>
       <c r="B18">
-        <v>0.09777790000000008</v>
-      </c>
-      <c r="C18">
         <v>-0.009418295396364185</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43738</v>
       </c>
       <c r="B19">
-        <v>0.1120391999999999</v>
-      </c>
-      <c r="C19">
         <v>0.01299106130666305</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43769</v>
       </c>
       <c r="B20">
-        <v>0.1310301</v>
-      </c>
-      <c r="C20">
         <v>0.01707754546782181</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43799</v>
       </c>
       <c r="B21">
-        <v>0.1309431000000001</v>
-      </c>
-      <c r="C21">
         <v>-7.692102977630011e-05</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43830</v>
       </c>
       <c r="B22">
-        <v>0.1458581000000001</v>
-      </c>
-      <c r="C22">
         <v>0.01318810822578076</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43861</v>
       </c>
       <c r="B23">
-        <v>0.1387472999999999</v>
-      </c>
-      <c r="C23">
         <v>-0.006205654958498119</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43890</v>
       </c>
       <c r="B24">
-        <v>0.1195132999999999</v>
-      </c>
-      <c r="C24">
         <v>-0.01689049010258903</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43921</v>
       </c>
       <c r="B25">
-        <v>0.0785442999999999</v>
-      </c>
-      <c r="C25">
         <v>-0.03659536693311283</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43951</v>
       </c>
       <c r="B26">
-        <v>0.09129889999999996</v>
-      </c>
-      <c r="C26">
         <v>0.01182575439877631</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43982</v>
       </c>
       <c r="B27">
-        <v>0.1005651999999999</v>
-      </c>
-      <c r="C27">
         <v>0.00849107426022333</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44012</v>
       </c>
       <c r="B28">
-        <v>0.1032109999999999</v>
-      </c>
-      <c r="C28">
         <v>0.002404037489101007</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44043</v>
       </c>
       <c r="B29">
-        <v>0.1264685000000001</v>
-      </c>
-      <c r="C29">
         <v>0.02108164258695777</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44074</v>
       </c>
       <c r="B30">
-        <v>0.1340768999999999</v>
-      </c>
-      <c r="C30">
         <v>0.006754205732339535</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44104</v>
       </c>
       <c r="B31">
-        <v>0.1258528000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.007251801002207015</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44135</v>
       </c>
       <c r="B32">
-        <v>0.1105590000000001</v>
-      </c>
-      <c r="C32">
         <v>-0.01358419146801426</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44165</v>
       </c>
       <c r="B33">
-        <v>0.1359002</v>
-      </c>
-      <c r="C33">
-        <v>0.02281841847213872</v>
+        <v>0.0196730655462698</v>
       </c>
     </row>
   </sheetData>
